--- a/results.xlsx
+++ b/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogulc\Desktop\dense-trajectories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogulc\Desktop\idt-slr-matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>shape</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>IDT - only hand</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>Descriptors</t>
+  </si>
+  <si>
+    <t>IDT-Hands</t>
+  </si>
+  <si>
+    <t>clusters</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -81,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -243,23 +258,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -282,6 +303,82 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,544 +695,594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64DCAD4-8417-4B24-808B-7D20DC9001B4}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="17" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="Q2" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="P3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="S3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
         <v>90.42</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>91.48</v>
       </c>
-      <c r="D4" s="4">
-        <v>95.74</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="2">
+        <v>95.74</v>
+      </c>
+      <c r="E4" s="2">
         <v>94.68</v>
       </c>
-      <c r="F4" s="7">
-        <v>95.74</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="F4" s="4">
+        <v>95.74</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3">
+        <v>89.36</v>
+      </c>
+      <c r="I4" s="27">
+        <v>94.68</v>
+      </c>
+      <c r="J4" s="27">
+        <v>94.68</v>
+      </c>
+      <c r="K4" s="27">
+        <v>93.61</v>
+      </c>
+      <c r="L4" s="4">
+        <v>95.74</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="29"/>
+      <c r="P4" s="35">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="44">
+        <v>78.72</v>
+      </c>
+      <c r="S4" s="44">
+        <v>84.04</v>
+      </c>
+      <c r="T4" s="44">
+        <v>88.29</v>
+      </c>
+      <c r="U4" s="45">
+        <v>95.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>92.55</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>93.61</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>96.8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>93.61</v>
       </c>
-      <c r="F5" s="7">
-        <v>95.74</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="F5" s="4">
+        <v>95.74</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3">
+        <v>90.42</v>
+      </c>
+      <c r="I5" s="27">
+        <v>94.68</v>
+      </c>
+      <c r="J5" s="27">
+        <v>94.68</v>
+      </c>
+      <c r="K5" s="27">
+        <v>94.68</v>
+      </c>
+      <c r="L5" s="4">
+        <v>95.74</v>
+      </c>
+      <c r="N5" s="32"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="38">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="47">
+        <v>81.94</v>
+      </c>
+      <c r="S5" s="47">
+        <v>86.17</v>
+      </c>
+      <c r="T5" s="47">
+        <v>88.29</v>
+      </c>
+      <c r="U5" s="48">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>92.55</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>91.48</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>93.61</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>94.68</v>
       </c>
-      <c r="F6" s="7">
-        <v>95.74</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="F6" s="4">
+        <v>95.74</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3">
+        <v>90.42</v>
+      </c>
+      <c r="I6" s="27">
+        <v>94.68</v>
+      </c>
+      <c r="J6" s="27">
+        <v>94.68</v>
+      </c>
+      <c r="K6" s="27">
+        <v>94.68</v>
+      </c>
+      <c r="L6" s="4">
+        <v>95.74</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="29"/>
+      <c r="P6" s="35">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>91.06</v>
+      </c>
+      <c r="R6" s="44">
+        <v>91.06</v>
+      </c>
+      <c r="S6" s="44">
+        <v>94.89</v>
+      </c>
+      <c r="T6" s="44">
+        <v>94.75</v>
+      </c>
+      <c r="U6" s="45">
+        <v>95.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>88.29</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>88.29</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>92.55</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>94.68</v>
       </c>
-      <c r="F7" s="7">
-        <v>95.74</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="F7" s="4">
+        <v>95.74</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3">
+        <v>90.42</v>
+      </c>
+      <c r="I7" s="27">
+        <v>94.68</v>
+      </c>
+      <c r="J7" s="27">
+        <v>95.74</v>
+      </c>
+      <c r="K7" s="27">
+        <v>93.61</v>
+      </c>
+      <c r="L7" s="4">
+        <v>95.74</v>
+      </c>
+      <c r="N7" s="32"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="38">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="46">
+        <v>90.42</v>
+      </c>
+      <c r="R7" s="47">
+        <v>94.89</v>
+      </c>
+      <c r="S7" s="47">
+        <v>95.1</v>
+      </c>
+      <c r="T7" s="47">
+        <v>94.25</v>
+      </c>
+      <c r="U7" s="48">
+        <v>95.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>91.48</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>90.42</v>
       </c>
-      <c r="D8" s="4">
-        <v>95.74</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="2">
+        <v>95.74</v>
+      </c>
+      <c r="E8" s="2">
         <v>93.61</v>
       </c>
-      <c r="F8" s="7">
-        <v>95.74</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="F8" s="4">
+        <v>95.74</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3">
+        <v>91.48</v>
+      </c>
+      <c r="I8" s="27">
+        <v>95.74</v>
+      </c>
+      <c r="J8" s="27">
+        <v>95.74</v>
+      </c>
+      <c r="K8" s="27">
+        <v>94.68</v>
+      </c>
+      <c r="L8" s="4">
+        <v>95.74</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="31"/>
+      <c r="P8" s="35">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="43">
+        <v>96.8</v>
+      </c>
+      <c r="R8" s="44">
+        <v>97.87</v>
+      </c>
+      <c r="S8" s="44">
+        <v>92.55</v>
+      </c>
+      <c r="T8" s="44">
+        <v>90.42</v>
+      </c>
+      <c r="U8" s="45">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <f>AVERAGE(B4:B8)</f>
         <v>91.058000000000007</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <f t="shared" ref="C9:F9" si="0">AVERAGE(C4:C8)</f>
         <v>91.056000000000012</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>94.888000000000005</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>94.25200000000001</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>95.74</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="15" t="e">
+      <c r="G9" s="2"/>
+      <c r="H9" s="12">
         <f>AVERAGE(H4:H8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="16" t="e">
+        <v>90.42</v>
+      </c>
+      <c r="I9" s="13">
         <f t="shared" ref="I9" si="1">AVERAGE(I4:I8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="16" t="e">
+        <v>94.89200000000001</v>
+      </c>
+      <c r="J9" s="13">
         <f t="shared" ref="J9" si="2">AVERAGE(J4:J8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="16" t="e">
+        <v>95.104000000000013</v>
+      </c>
+      <c r="K9" s="13">
         <f t="shared" ref="K9" si="3">AVERAGE(K4:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="17" t="e">
+        <v>94.25200000000001</v>
+      </c>
+      <c r="L9" s="14">
         <f t="shared" ref="L9" si="4">AVERAGE(L4:L8)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+        <v>95.74</v>
+      </c>
+      <c r="N9" s="32"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="38">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="46">
+        <v>93.61</v>
+      </c>
+      <c r="R9" s="47">
+        <v>95.744</v>
+      </c>
+      <c r="S9" s="47">
+        <v>90.42</v>
+      </c>
+      <c r="T9" s="47">
+        <v>91.48</v>
+      </c>
+      <c r="U9" s="48">
+        <v>95.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <f>STDEV(B4:B8)</f>
         <v>1.7817884273953479</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <f t="shared" ref="C10:F10" si="5">STDEV(C4:C8)</f>
         <v>1.9324673347821411</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <f t="shared" si="5"/>
         <v>1.7469315956842719</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <f t="shared" si="5"/>
         <v>0.58606313653053177</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8" t="e">
+      <c r="G10" s="7"/>
+      <c r="H10" s="5">
         <f>STDEV(H4:H8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="9" t="e">
+        <v>0.74953318805774194</v>
+      </c>
+      <c r="I10" s="6">
         <f t="shared" ref="I10:L10" si="6">STDEV(I4:I8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="9" t="e">
+        <v>0.47404641122995012</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="9" t="e">
+        <v>0.58058591095546952</v>
+      </c>
+      <c r="K10" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="11" t="e">
+        <v>0.58606313653053177</v>
+      </c>
+      <c r="L10" s="8">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="41"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42">
         <v>1</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>3</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>4</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
-        <v>5</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="15" t="e">
-        <f>AVERAGE(B16:B20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C21" s="16" t="e">
-        <f t="shared" ref="C21" si="7">AVERAGE(C16:C20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="16" t="e">
-        <f t="shared" ref="D21" si="8">AVERAGE(D16:D20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="16" t="e">
-        <f t="shared" ref="E21" si="9">AVERAGE(E16:E20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="17" t="e">
-        <f t="shared" ref="F21" si="10">AVERAGE(F16:F20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="15" t="e">
-        <f>AVERAGE(H16:H20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="16" t="e">
-        <f t="shared" ref="I21" si="11">AVERAGE(I16:I20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="16" t="e">
-        <f t="shared" ref="J21" si="12">AVERAGE(J16:J20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="16" t="e">
-        <f t="shared" ref="K21" si="13">AVERAGE(K16:K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="17" t="e">
-        <f t="shared" ref="L21" si="14">AVERAGE(L16:L20)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="8" t="e">
-        <f>STDEV(B16:B20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C22" s="9" t="e">
-        <f t="shared" ref="C22:F22" si="15">STDEV(C16:C20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="11" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="8" t="e">
-        <f>STDEV(H16:H20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="9" t="e">
-        <f t="shared" ref="I22:L22" si="16">STDEV(I16:I20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="9" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="9" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="11" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="N8:O9"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="B1:L1"/>
